--- a/public/certificates_import/Users with kc id and events.xlsx
+++ b/public/certificates_import/Users with kc id and events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\kcversion8\public\certificates_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD430579-4FFE-4B9A-87DD-04B100102DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E075EBF0-E5C1-494F-9049-B6133927AA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18255" yWindow="1965" windowWidth="16905" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="events" localSheetId="0">events!$A$1:$C$44</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -154,12 +154,105 @@
   <si>
     <t>Professional Diploma in Entrepreneurship</t>
   </si>
+  <si>
+    <t>Professional Certificate in Video Production, Athens</t>
+  </si>
+  <si>
+    <t>Professional Diploma in Video Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Certificate in Video Production, Athens </t>
+  </si>
+  <si>
+    <t>Professional Certificate in Google Advertising, Athens</t>
+  </si>
+  <si>
+    <t>Professional Diploma in Google Advertising</t>
+  </si>
+  <si>
+    <t>Professional Certificate in Google Advertising</t>
+  </si>
+  <si>
+    <t>Professional Diploma in Fashion Business, Athens</t>
+  </si>
+  <si>
+    <t>Professional Diploma in Fashion Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate in Advanced Social Media Management, Athens </t>
+  </si>
+  <si>
+    <t>Professional Diploma in Social Media Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate in Advanced Social Media Management, Thessaloniki </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crash Course - Copywriting for Articles, Social Media Posts &amp; Advertising, Athens </t>
+  </si>
+  <si>
+    <t>Certificate of Completion εδώ (με το όνομα του course)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crash Course - Copywriting for Articles, Social Media Posts &amp; Advertising, Thessaloniki </t>
+  </si>
+  <si>
+    <t>Crash Course - Graphics for Social Media Posts &amp; Advertising, Athens</t>
+  </si>
+  <si>
+    <t>E-Learning: Masterclass in Digital &amp; Social Media Marketing</t>
+  </si>
+  <si>
+    <t>Facebook Fundamentals</t>
+  </si>
+  <si>
+    <t>E-Learning: Masterclass in Facebook Marketing</t>
+  </si>
+  <si>
+    <t>Professional Diploma in Facebook Marketing</t>
+  </si>
+  <si>
+    <t>E-Learning: URLs &amp; UTMs in Digital Marketing</t>
+  </si>
+  <si>
+    <t>E-Learning: How to Give Great Public Presentations</t>
+  </si>
+  <si>
+    <t>Professional Training in Advertising &amp; Strategy</t>
+  </si>
+  <si>
+    <t>εδώ τίποτα - ήταν corporate training</t>
+  </si>
+  <si>
+    <t>E-Learning: Masterclass in Facebook &amp; Instagram Advertising</t>
+  </si>
+  <si>
+    <t>Professional Diploma in Facebook &amp; Instagram Advertising</t>
+  </si>
+  <si>
+    <t>Facebook &amp; Instagram Fundamentals</t>
+  </si>
+  <si>
+    <t>Influencer Marketing Fundamentals</t>
+  </si>
+  <si>
+    <t>E-Learning: How to Use Clubhouse</t>
+  </si>
+  <si>
+    <t>E-Learning: Masterclass in Google Advertising</t>
+  </si>
+  <si>
+    <t>E-Learning: Masterclass in Digital &amp; Social Media Marketing 2020</t>
+  </si>
+  <si>
+    <t>Corporate Training Series - Mullenlowe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +296,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -230,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -245,6 +345,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -529,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BEB6F6-84AC-49A4-9C2E-E4D2A3BB4EE5}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1121,7 @@
         <v>43754</v>
       </c>
       <c r="D28" s="3">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
@@ -1288,6 +1392,422 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>289</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="13">
+        <v>42893</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>678</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="13">
+        <v>43117</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>1103</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="13">
+        <v>43514</v>
+      </c>
+      <c r="D47" s="3">
+        <v>43525</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>1235</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="13">
+        <v>43754</v>
+      </c>
+      <c r="D48" s="3">
+        <v>43770</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>1939</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="13">
+        <v>43997</v>
+      </c>
+      <c r="D49" s="3">
+        <v>44013</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <v>564</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="13">
+        <v>43495</v>
+      </c>
+      <c r="D50" s="3">
+        <v>43497</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>943</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="13">
+        <v>43258</v>
+      </c>
+      <c r="D51" s="3">
+        <v>43282</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>1026</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="13">
+        <v>43388</v>
+      </c>
+      <c r="D52" s="3">
+        <v>43405</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>1048</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="13">
+        <v>43397</v>
+      </c>
+      <c r="D53" s="3">
+        <v>43405</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>1214</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="13">
+        <v>43637</v>
+      </c>
+      <c r="D54" s="3">
+        <v>43617</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>1302</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="13">
+        <v>43750</v>
+      </c>
+      <c r="D55" s="3">
+        <v>43739</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>1303</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="13">
+        <v>43739</v>
+      </c>
+      <c r="D56" s="3">
+        <v>43739</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>1265</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="13">
+        <v>43726</v>
+      </c>
+      <c r="D57" s="3">
+        <v>43709</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>2304</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="13">
+        <v>44438</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>1956</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="13">
+        <v>44007</v>
+      </c>
+      <c r="D59" s="3">
+        <v>43983</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>2068</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="13">
+        <v>44204</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>1965</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="13">
+        <v>43974</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <v>1968</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="13">
+        <v>43985</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <v>2035</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="13">
+        <v>44116</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>2069</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="13">
+        <v>44205</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>1993</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="13">
+        <v>44251</v>
+      </c>
+      <c r="D65" s="3">
+        <v>44228</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
+        <v>4615</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="13">
+        <v>25569</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>2285</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="13">
+        <v>44267</v>
+      </c>
+      <c r="D67" s="12"/>
+      <c r="E67" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <v>2286</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="13">
+        <v>44294</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
+        <v>1350</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="13">
+        <v>44435</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <v>4616</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="13">
+        <v>44473</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
